--- a/test/Epoch1.xlsx
+++ b/test/Epoch1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A研究生\a完整的论文\Geo-mirror-descent\scheduling\GMD\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162A9CEB-7FC4-4956-82E3-8FD5B5D45268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0911EB0F-8402-42B1-A23D-B158B6BF4760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3218" yWindow="1013" windowWidth="15082" windowHeight="9907" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3218" yWindow="1013" windowWidth="15082" windowHeight="9907" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="application" sheetId="1" r:id="rId1"/>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/test/Epoch1.xlsx
+++ b/test/Epoch1.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A研究生\a完整的论文\Geo-mirror-descent\scheduling\GMD\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0911EB0F-8402-42B1-A23D-B158B6BF4760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3218" yWindow="1013" windowWidth="15082" windowHeight="9907" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="application" sheetId="1" r:id="rId1"/>
     <sheet name="flows" sheetId="2" r:id="rId2"/>
     <sheet name="bandwidth" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -81,27 +75,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -147,18 +135,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -446,14 +426,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -486,7 +466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -498,25 +478,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="26.796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -562,7 +536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -585,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -608,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -622,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -631,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -655,22 +629,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -681,7 +652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -692,7 +663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -703,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -714,7 +685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -725,7 +696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -736,7 +707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -747,7 +718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -759,7 +730,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/Epoch1.xlsx
+++ b/test/Epoch1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>seq</t>
   </si>
@@ -27,6 +27,9 @@
     <t>dc</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>2,3,5</t>
   </si>
   <si>
@@ -46,9 +49,6 @@
   </si>
   <si>
     <t>iterationDi</t>
-  </si>
-  <si>
-    <t>demand</t>
   </si>
   <si>
     <t>(2,1)-(1,3)-(1,5)</t>
@@ -427,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +443,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -452,10 +455,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -463,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -474,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -495,22 +498,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
